--- a/temp_reporte_sistemas.xlsx
+++ b/temp_reporte_sistemas.xlsx
@@ -6,7 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-120" windowWidth="20640" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja(1)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja(32)" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja(31)" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hoja(30)" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ADSCRIPCION">#REF!</definedName>
@@ -73,9 +75,15 @@
     <definedName name="TIPO_A">#REF!</definedName>
     <definedName name="TIPO_B">#REF!</definedName>
     <definedName name="VIERNES">#REF!</definedName>
-    <definedName name="ASIGNACION" localSheetId="0">'Hoja(1)'!$K:$K</definedName>
-    <definedName name="FORMATO" localSheetId="0">'Hoja(1)'!$A:$K</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja(1)'!$A$1:$J$59</definedName>
+    <definedName name="ASIGNACION" localSheetId="0">'Hoja(32)'!$K:$K</definedName>
+    <definedName name="FORMATO" localSheetId="0">'Hoja(32)'!$A:$K</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Hoja(32)'!$A$1:$J$59</definedName>
+    <definedName name="ASIGNACION" localSheetId="1">'Hoja(31)'!$K:$K</definedName>
+    <definedName name="FORMATO" localSheetId="1">'Hoja(31)'!$A:$K</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Hoja(31)'!$A$1:$J$59</definedName>
+    <definedName name="ASIGNACION" localSheetId="2">'Hoja(30)'!$K:$K</definedName>
+    <definedName name="FORMATO" localSheetId="2">'Hoja(30)'!$A:$K</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Hoja(30)'!$A$1:$J$59</definedName>
   </definedNames>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
@@ -87,7 +95,7 @@
     <numFmt numFmtId="164" formatCode="_-[$€-2]* #,##0.00_-;\-[$€-2]* #,##0.00_-;_-[$€-2]* &quot;-&quot;??_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <name val="Arial"/>
       <sz val="10"/>
@@ -181,11 +189,6 @@
       <sz val="7"/>
     </font>
     <font>
-      <name val="Gill Sans MT"/>
-      <family val="2"/>
-      <sz val="7"/>
-    </font>
-    <font>
       <name val="Helvetica"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
@@ -236,7 +239,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -455,6 +458,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -475,15 +489,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="3">
@@ -491,7 +501,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -625,88 +635,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -716,13 +664,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,53 +707,91 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -793,6 +801,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -800,7 +814,875 @@
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="128">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -903,6 +1785,116 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8258175" cy="704850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8248650" cy="628650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8258175" cy="704850"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>55</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="8248650" cy="628650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -1261,22 +2253,22 @@
   </sheetPr>
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A44" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:J55"/>
+    <sheetView showZeros="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="A39" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col width="11.140625" customWidth="1" style="69" min="1" max="1"/>
-    <col width="19.42578125" customWidth="1" style="69" min="2" max="2"/>
-    <col width="7.85546875" customWidth="1" style="69" min="3" max="3"/>
-    <col width="5.85546875" customWidth="1" style="69" min="4" max="4"/>
-    <col width="13.140625" customWidth="1" style="69" min="5" max="5"/>
-    <col width="13.7109375" customWidth="1" style="69" min="6" max="6"/>
-    <col width="12.5703125" customWidth="1" style="69" min="7" max="7"/>
-    <col width="12.42578125" customWidth="1" style="69" min="8" max="8"/>
-    <col width="12" customWidth="1" style="69" min="9" max="9"/>
-    <col width="9.7109375" customWidth="1" style="69" min="10" max="10"/>
+    <col width="11.140625" customWidth="1" style="59" min="1" max="1"/>
+    <col width="19.42578125" customWidth="1" style="59" min="2" max="2"/>
+    <col width="7.85546875" customWidth="1" style="59" min="3" max="3"/>
+    <col width="5.85546875" customWidth="1" style="59" min="4" max="4"/>
+    <col width="13.140625" customWidth="1" style="59" min="5" max="5"/>
+    <col width="13.7109375" customWidth="1" style="59" min="6" max="6"/>
+    <col width="12.5703125" customWidth="1" style="59" min="7" max="7"/>
+    <col width="12.42578125" customWidth="1" style="59" min="8" max="8"/>
+    <col width="12" customWidth="1" style="59" min="9" max="9"/>
+    <col width="9.7109375" customWidth="1" style="59" min="10" max="10"/>
     <col width="12.140625" customWidth="1" style="2" min="11" max="11"/>
     <col width="11.42578125" customWidth="1" style="3" min="12" max="15"/>
     <col width="25.42578125" customWidth="1" style="3" min="16" max="16"/>
@@ -1286,161 +2278,161 @@
   </cols>
   <sheetData>
     <row r="1" ht="12" customHeight="1" s="109">
-      <c r="A1" s="53" t="n"/>
+      <c r="A1" s="57" t="n"/>
     </row>
     <row r="2" ht="12" customHeight="1" s="109"/>
     <row r="3" ht="32.25" customHeight="1" s="109"/>
     <row r="4" ht="12" customHeight="1" s="109">
-      <c r="A4" s="97" t="inlineStr">
+      <c r="A4" s="58" t="inlineStr">
         <is>
           <t>“2025. Año del Bicentenario de la Erección del Estado Libre y Soberano de México”</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="98" t="inlineStr">
+      <c r="A5" s="60" t="inlineStr">
         <is>
           <t>Asignación Académica</t>
         </is>
       </c>
-      <c r="B5" s="83" t="n"/>
-      <c r="C5" s="83" t="n"/>
-      <c r="D5" s="83" t="n"/>
-      <c r="E5" s="83" t="n"/>
-      <c r="F5" s="83" t="n"/>
-      <c r="G5" s="83" t="n"/>
-      <c r="H5" s="83" t="n"/>
-      <c r="I5" s="83" t="n"/>
-      <c r="J5" s="84" t="n"/>
+      <c r="B5" s="61" t="n"/>
+      <c r="C5" s="61" t="n"/>
+      <c r="D5" s="61" t="n"/>
+      <c r="E5" s="61" t="n"/>
+      <c r="F5" s="61" t="n"/>
+      <c r="G5" s="61" t="n"/>
+      <c r="H5" s="61" t="n"/>
+      <c r="I5" s="61" t="n"/>
+      <c r="J5" s="62" t="n"/>
     </row>
     <row r="6" ht="12" customHeight="1" s="109">
-      <c r="A6" s="85" t="inlineStr">
+      <c r="A6" s="63" t="inlineStr">
         <is>
           <t>NOMBRE:</t>
         </is>
       </c>
-      <c r="B6" s="86" t="n"/>
-      <c r="C6" s="86" t="n"/>
-      <c r="D6" s="87" t="n"/>
-      <c r="E6" s="85" t="inlineStr">
+      <c r="B6" s="64" t="n"/>
+      <c r="C6" s="64" t="n"/>
+      <c r="D6" s="65" t="n"/>
+      <c r="E6" s="63" t="inlineStr">
         <is>
           <t>PROFESION:</t>
         </is>
       </c>
-      <c r="F6" s="86" t="n"/>
-      <c r="G6" s="86" t="n"/>
-      <c r="H6" s="86" t="n"/>
-      <c r="I6" s="86" t="n"/>
-      <c r="J6" s="87" t="n"/>
+      <c r="F6" s="64" t="n"/>
+      <c r="G6" s="64" t="n"/>
+      <c r="H6" s="64" t="n"/>
+      <c r="I6" s="64" t="n"/>
+      <c r="J6" s="65" t="n"/>
     </row>
     <row r="7" ht="12" customHeight="1" s="109">
-      <c r="A7" s="99" t="inlineStr">
-        <is>
-          <t>YOLOTZI</t>
-        </is>
-      </c>
-      <c r="B7" s="90" t="n"/>
-      <c r="C7" s="90" t="n"/>
-      <c r="D7" s="104" t="n"/>
-      <c r="E7" s="100" t="inlineStr">
-        <is>
-          <t>ING. INDUSTRIAL</t>
-        </is>
-      </c>
-      <c r="F7" s="90" t="n"/>
-      <c r="G7" s="90" t="n"/>
-      <c r="H7" s="90" t="n"/>
-      <c r="I7" s="90" t="n"/>
-      <c r="J7" s="104" t="n"/>
+      <c r="A7" s="53" t="inlineStr">
+        <is>
+          <t>AGUILAR GUGGEMBUHL JARUMI</t>
+        </is>
+      </c>
+      <c r="B7" s="69" t="n"/>
+      <c r="C7" s="69" t="n"/>
+      <c r="D7" s="70" t="n"/>
+      <c r="E7" s="56" t="inlineStr">
+        <is>
+          <t>LIC. VETERINARIA Y ZOOTECNIA/M. EN C. AGROPECUARIAS/ DR. BIOTECNOLOGÍA</t>
+        </is>
+      </c>
+      <c r="F7" s="69" t="n"/>
+      <c r="G7" s="69" t="n"/>
+      <c r="H7" s="69" t="n"/>
+      <c r="I7" s="69" t="n"/>
+      <c r="J7" s="70" t="n"/>
     </row>
     <row r="8" ht="12" customHeight="1" s="109">
-      <c r="A8" s="85" t="inlineStr">
+      <c r="A8" s="63" t="inlineStr">
         <is>
           <t>ADSCRIPCIÓN:</t>
         </is>
       </c>
-      <c r="B8" s="86" t="n"/>
-      <c r="C8" s="86" t="n"/>
-      <c r="D8" s="87" t="n"/>
-      <c r="E8" s="85" t="inlineStr">
+      <c r="B8" s="64" t="n"/>
+      <c r="C8" s="64" t="n"/>
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="63" t="inlineStr">
         <is>
           <t>INGRESO AL TECNOLÓGICO</t>
         </is>
       </c>
-      <c r="F8" s="86" t="n"/>
-      <c r="G8" s="87" t="n"/>
-      <c r="H8" s="85" t="inlineStr">
+      <c r="F8" s="64" t="n"/>
+      <c r="G8" s="65" t="n"/>
+      <c r="H8" s="63" t="inlineStr">
         <is>
           <t>TIEMPO INDETERMINADO</t>
         </is>
       </c>
-      <c r="I8" s="86" t="n"/>
-      <c r="J8" s="87" t="n"/>
+      <c r="I8" s="64" t="n"/>
+      <c r="J8" s="65" t="n"/>
     </row>
     <row r="9" ht="12" customHeight="1" s="109">
-      <c r="A9" s="100" t="inlineStr">
+      <c r="A9" s="56" t="inlineStr">
         <is>
           <t>PROFESOR DE ASIGNATURA DE ING. INDUSTRIAL</t>
         </is>
       </c>
-      <c r="B9" s="90" t="n"/>
-      <c r="C9" s="90" t="n"/>
-      <c r="D9" s="104" t="n"/>
-      <c r="E9" s="103" t="inlineStr">
-        <is>
-          <t>01 DE MARZO DE 2011</t>
-        </is>
-      </c>
-      <c r="F9" s="90" t="n"/>
-      <c r="G9" s="104" t="n"/>
-      <c r="H9" s="103" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="I9" s="90" t="n"/>
-      <c r="J9" s="104" t="n"/>
+      <c r="B9" s="69" t="n"/>
+      <c r="C9" s="69" t="n"/>
+      <c r="D9" s="70" t="n"/>
+      <c r="E9" s="68" t="inlineStr">
+        <is>
+          <t>01 DE SEPTIEMBRE 2014</t>
+        </is>
+      </c>
+      <c r="F9" s="69" t="n"/>
+      <c r="G9" s="70" t="n"/>
+      <c r="H9" s="68" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" s="69" t="n"/>
+      <c r="J9" s="70" t="n"/>
     </row>
     <row r="10" ht="12" customHeight="1" s="109">
-      <c r="A10" s="85" t="inlineStr">
+      <c r="A10" s="63" t="inlineStr">
         <is>
           <t>PERIODO:</t>
         </is>
       </c>
-      <c r="B10" s="86" t="n"/>
-      <c r="C10" s="86" t="n"/>
-      <c r="D10" s="87" t="n"/>
-      <c r="E10" s="88" t="inlineStr">
+      <c r="B10" s="64" t="n"/>
+      <c r="C10" s="64" t="n"/>
+      <c r="D10" s="65" t="n"/>
+      <c r="E10" s="75" t="inlineStr">
         <is>
           <t>HORAS TIPO</t>
         </is>
       </c>
-      <c r="F10" s="83" t="n"/>
-      <c r="G10" s="83" t="n"/>
-      <c r="H10" s="84" t="n"/>
-      <c r="I10" s="88" t="inlineStr">
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="62" t="n"/>
+      <c r="I10" s="75" t="inlineStr">
         <is>
           <t>TOTAL DE HORAS</t>
         </is>
       </c>
-      <c r="J10" s="84" t="n"/>
+      <c r="J10" s="62" t="n"/>
     </row>
     <row r="11" ht="12" customHeight="1" s="109">
-      <c r="A11" s="89" t="inlineStr">
-        <is>
-          <t>MARZO-AGOSTO 2024</t>
-        </is>
-      </c>
-      <c r="B11" s="90" t="n"/>
-      <c r="C11" s="90" t="n"/>
-      <c r="D11" s="90" t="n"/>
-      <c r="E11" s="88" t="inlineStr">
+      <c r="A11" s="76" t="inlineStr">
+        <is>
+          <t>2024-1 (MARZO-AGOSTO 2024)</t>
+        </is>
+      </c>
+      <c r="B11" s="69" t="n"/>
+      <c r="C11" s="69" t="n"/>
+      <c r="D11" s="69" t="n"/>
+      <c r="E11" s="75" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11" s="6" t="inlineStr">
         <is>
@@ -1448,7 +2440,7 @@
         </is>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7" t="inlineStr">
         <is>
@@ -1456,7 +2448,7 @@
         </is>
       </c>
       <c r="J11" s="5" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3" t="n"/>
     </row>
@@ -1473,20 +2465,20 @@
       <c r="J12" s="8" t="n"/>
     </row>
     <row r="13" ht="12" customHeight="1" s="109">
-      <c r="A13" s="88" t="inlineStr">
+      <c r="A13" s="75" t="inlineStr">
         <is>
           <t>Asignación de Horas Frente a Grupo</t>
         </is>
       </c>
-      <c r="B13" s="83" t="n"/>
-      <c r="C13" s="83" t="n"/>
-      <c r="D13" s="83" t="n"/>
-      <c r="E13" s="83" t="n"/>
-      <c r="F13" s="83" t="n"/>
-      <c r="G13" s="83" t="n"/>
-      <c r="H13" s="83" t="n"/>
-      <c r="I13" s="83" t="n"/>
-      <c r="J13" s="84" t="n"/>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="61" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="62" t="n"/>
     </row>
     <row r="14" ht="12" customHeight="1" s="109">
       <c r="A14" s="18" t="inlineStr">
@@ -1543,108 +2535,132 @@
     <row r="15">
       <c r="A15" s="10" t="inlineStr">
         <is>
+          <t>INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>QUÍMICA (INC-1025)</t>
+        </is>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="D15" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" s="14" t="inlineStr">
+        <is>
+          <t>11:00 13:00</t>
+        </is>
+      </c>
+      <c r="F15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G15" s="14" t="inlineStr">
+        <is>
+          <t>11:00 13:00</t>
+        </is>
+      </c>
+      <c r="H15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K15" s="15" t="n"/>
+      <c r="N15" s="110" t="n"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1" s="109">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>DESARROLLO SUSTENTABLE (ACD-0908)</t>
+        </is>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>1501</t>
+        </is>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G16" s="14" t="inlineStr">
+        <is>
+          <t>09:00 11:00</t>
+        </is>
+      </c>
+      <c r="H16" s="14" t="inlineStr">
+        <is>
+          <t>10:00 12:00</t>
+        </is>
+      </c>
+      <c r="I16" s="14" t="inlineStr">
+        <is>
+          <t>11:00 12:00</t>
+        </is>
+      </c>
+      <c r="J16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K16" s="17" t="n"/>
+      <c r="N16" s="110" t="n"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1" s="109">
+      <c r="A17" s="10" t="inlineStr">
+        <is>
           <t>SISTEMAS COMPUTACIONALES</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr">
+      <c r="B17" s="11" t="inlineStr">
         <is>
           <t>MINECRAFT</t>
         </is>
       </c>
-      <c r="C15" s="12" t="inlineStr">
-        <is>
-          <t>4271</t>
-        </is>
-      </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E15" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F15" s="110" t="inlineStr">
-        <is>
-          <t>07:00 09:00</t>
-        </is>
-      </c>
-      <c r="G15" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H15" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">07:00 09:00 H.T. </t>
-        </is>
-      </c>
-      <c r="I15" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J15" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K15" s="15" t="n"/>
-      <c r="N15" s="111" t="n"/>
-    </row>
-    <row r="16" ht="21.75" customHeight="1" s="109">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="11" t="inlineStr"/>
-      <c r="C16" s="12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D16" s="12" t="inlineStr"/>
-      <c r="E16" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F16" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G16" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H16" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I16" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J16" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K16" s="17" t="n"/>
-      <c r="N16" s="111" t="n"/>
-    </row>
-    <row r="17" ht="21.75" customHeight="1" s="109">
-      <c r="A17" s="10" t="n"/>
-      <c r="B17" s="11" t="inlineStr"/>
-      <c r="C17" s="12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D17" s="12" t="inlineStr"/>
       <c r="E17" s="14" t="inlineStr">
         <is>
           <t> </t>
@@ -1677,7 +2693,7 @@
       </c>
       <c r="K17" s="17" t="n"/>
     </row>
-    <row r="18">
+    <row r="18" ht="17.25" customHeight="1" s="109">
       <c r="A18" s="10" t="n"/>
       <c r="B18" s="11" t="inlineStr"/>
       <c r="C18" s="12" t="inlineStr">
@@ -1892,7 +2908,7 @@
       </c>
       <c r="D23" s="9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E23" s="21" t="n"/>
@@ -1904,7 +2920,7 @@
       <c r="K23" s="17" t="n"/>
     </row>
     <row r="24" ht="12" customHeight="1" s="109">
-      <c r="A24" s="91" t="inlineStr">
+      <c r="A24" s="77" t="inlineStr">
         <is>
           <t>Asignación de Horas de Descarga para otras Actividades</t>
         </is>
@@ -1962,138 +2978,186 @@
         </is>
       </c>
     </row>
-    <row r="26" ht="24.75" customHeight="1" s="109">
+    <row r="26" ht="21.75" customHeight="1" s="109">
       <c r="A26" s="24" t="inlineStr">
         <is>
-          <t>SISTEMAS COMPUTACIONALES</t>
+          <t>INDUSTRIAL</t>
         </is>
       </c>
       <c r="B26" s="25" t="inlineStr">
         <is>
-          <t>MINECRAFT2</t>
+          <t xml:space="preserve">ASESORÍA DE QUÍMICA </t>
         </is>
       </c>
       <c r="C26" s="26" t="inlineStr">
         <is>
+          <t>1101</t>
+        </is>
+      </c>
+      <c r="D26" s="26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" s="14" t="inlineStr">
+        <is>
+          <t>10:00 11:00</t>
+        </is>
+      </c>
+      <c r="J26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K26" s="27" t="n"/>
+    </row>
+    <row r="27" ht="24.75" customHeight="1" s="109">
+      <c r="A27" s="24" t="inlineStr">
+        <is>
+          <t>INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B27" s="25" t="inlineStr">
+        <is>
+          <t>APORTACIÓN A LA LINEA DE INVESTIGACIÓN Y C.A</t>
+        </is>
+      </c>
+      <c r="C27" s="26" t="inlineStr">
+        <is>
           <t>NG</t>
         </is>
       </c>
-      <c r="D26" s="26" t="inlineStr">
+      <c r="D27" s="26" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K27" s="27" t="n"/>
+    </row>
+    <row r="28" ht="23.25" customHeight="1" s="109">
+      <c r="A28" s="24" t="inlineStr">
+        <is>
+          <t>INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B28" s="25" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD COMPLEMENTARIA (PRESENCIAL)</t>
+        </is>
+      </c>
+      <c r="C28" s="26" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="D28" s="26" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K28" s="27" t="n"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" s="109">
+      <c r="A29" s="24" t="inlineStr">
+        <is>
+          <t>INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B29" s="25" t="inlineStr">
+        <is>
+          <t>DISEÑO DE PROGRAMA EDUCATIVO DE POSGRADO (MAESTRÍA)</t>
+        </is>
+      </c>
+      <c r="C29" s="26" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="D29" s="26" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E26" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F26" s="110" t="inlineStr">
-        <is>
-          <t>11:00 14:00</t>
-        </is>
-      </c>
-      <c r="G26" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H26" s="14" t="inlineStr">
-        <is>
-          <t>11:00 13:00</t>
-        </is>
-      </c>
-      <c r="I26" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J26" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K26" s="27" t="n"/>
-    </row>
-    <row r="27" ht="28.5" customHeight="1" s="109">
-      <c r="A27" s="24" t="inlineStr"/>
-      <c r="B27" s="25" t="inlineStr"/>
-      <c r="C27" s="26" t="inlineStr"/>
-      <c r="D27" s="26" t="inlineStr"/>
-      <c r="E27" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F27" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G27" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H27" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I27" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J27" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K27" s="27" t="n"/>
-    </row>
-    <row r="28" ht="26.25" customHeight="1" s="109">
-      <c r="A28" s="24" t="inlineStr"/>
-      <c r="B28" s="25" t="inlineStr"/>
-      <c r="C28" s="26" t="inlineStr"/>
-      <c r="D28" s="26" t="inlineStr"/>
-      <c r="E28" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F28" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="G28" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="H28" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I28" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="J28" s="14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="K28" s="27" t="n"/>
-    </row>
-    <row r="29" ht="30" customHeight="1" s="109">
-      <c r="A29" s="24" t="inlineStr"/>
-      <c r="B29" s="25" t="inlineStr"/>
-      <c r="C29" s="26" t="inlineStr"/>
-      <c r="D29" s="26" t="inlineStr"/>
       <c r="E29" s="14" t="inlineStr">
         <is>
           <t> </t>
@@ -2126,11 +3190,27 @@
       </c>
       <c r="K29" s="27" t="n"/>
     </row>
-    <row r="30" ht="33" customHeight="1" s="109">
-      <c r="A30" s="24" t="inlineStr"/>
-      <c r="B30" s="25" t="inlineStr"/>
-      <c r="C30" s="26" t="inlineStr"/>
-      <c r="D30" s="26" t="inlineStr"/>
+    <row r="30" ht="24" customHeight="1" s="109">
+      <c r="A30" s="24" t="inlineStr">
+        <is>
+          <t>INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B30" s="25" t="inlineStr">
+        <is>
+          <t>ASESOR DE RESIDENCIAS PROFESIONALES Y TITULACIÓN POR VIICYT 2024</t>
+        </is>
+      </c>
+      <c r="C30" s="26" t="inlineStr">
+        <is>
+          <t>NG</t>
+        </is>
+      </c>
+      <c r="D30" s="26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="E30" s="14" t="inlineStr">
         <is>
           <t> </t>
@@ -2163,7 +3243,7 @@
       </c>
       <c r="K30" s="27" t="n"/>
     </row>
-    <row r="31" ht="19.5" customHeight="1" s="109">
+    <row r="31" ht="23.25" customHeight="1" s="109">
       <c r="A31" s="24" t="inlineStr"/>
       <c r="B31" s="25" t="inlineStr"/>
       <c r="C31" s="26" t="inlineStr"/>
@@ -2200,7 +3280,7 @@
       </c>
       <c r="K31" s="27" t="n"/>
     </row>
-    <row r="32" ht="34.5" customHeight="1" s="109">
+    <row r="32" ht="24" customHeight="1" s="109">
       <c r="A32" s="24" t="inlineStr"/>
       <c r="B32" s="25" t="inlineStr"/>
       <c r="C32" s="26" t="inlineStr"/>
@@ -2284,7 +3364,7 @@
       </c>
       <c r="D34" s="9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E34" s="30" t="n"/>
@@ -2296,7 +3376,7 @@
       <c r="K34" s="27" t="n"/>
     </row>
     <row r="35" ht="12" customHeight="1" s="109">
-      <c r="A35" s="91" t="inlineStr">
+      <c r="A35" s="77" t="inlineStr">
         <is>
           <t>Asignación de Horas de Presidente y Secretario de Academia</t>
         </is>
@@ -2358,19 +3438,11 @@
       <c r="A37" s="24" t="n"/>
       <c r="B37" s="25" t="inlineStr">
         <is>
-          <t>PRESIDENTE DE ACADEMIA</t>
-        </is>
-      </c>
-      <c r="C37" s="26" t="inlineStr">
-        <is>
-          <t>NG</t>
-        </is>
-      </c>
-      <c r="D37" s="26" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C37" s="26" t="inlineStr"/>
+      <c r="D37" s="26" t="inlineStr"/>
       <c r="E37" s="18" t="inlineStr">
         <is>
           <t> </t>
@@ -2398,7 +3470,7 @@
       </c>
       <c r="J37" s="26" t="inlineStr">
         <is>
-          <t>10:00 17:00</t>
+          <t> </t>
         </is>
       </c>
       <c r="K37" s="31" t="n"/>
@@ -2421,14 +3493,14 @@
     </row>
     <row r="39" ht="12" customHeight="1" s="109" thickBot="1">
       <c r="A39" s="36" t="n"/>
-      <c r="B39" s="92" t="inlineStr">
+      <c r="B39" s="78" t="inlineStr">
         <is>
           <t>TOTAL DE HORAS</t>
         </is>
       </c>
-      <c r="C39" s="93" t="n"/>
+      <c r="C39" s="79" t="n"/>
       <c r="D39" s="37" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E39" s="38" t="n"/>
       <c r="F39" s="38" t="n"/>
@@ -2442,26 +3514,26 @@
       <c r="B40" s="40" t="n"/>
       <c r="C40" s="41" t="n"/>
       <c r="D40" s="38" t="n"/>
-      <c r="E40" s="94" t="inlineStr">
+      <c r="E40" s="80" t="inlineStr">
         <is>
           <t>FECHA DE APLICACIÓN</t>
         </is>
       </c>
-      <c r="G40" s="95" t="inlineStr">
-        <is>
-          <t>16/02/2025</t>
-        </is>
-      </c>
-      <c r="H40" s="93" t="n"/>
-      <c r="I40" s="93" t="n"/>
-      <c r="J40" s="96" t="n"/>
+      <c r="G40" s="81" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="H40" s="79" t="n"/>
+      <c r="I40" s="79" t="n"/>
+      <c r="J40" s="82" t="n"/>
     </row>
     <row r="41" ht="12" customHeight="1" s="109" thickBot="1">
       <c r="A41" s="36" t="n"/>
       <c r="B41" s="40" t="n"/>
       <c r="C41" s="41" t="n"/>
       <c r="D41" s="38" t="n"/>
-      <c r="E41" s="94" t="inlineStr">
+      <c r="E41" s="80" t="inlineStr">
         <is>
           <t>CONSECUTIVO</t>
         </is>
@@ -2487,63 +3559,87 @@
       <c r="K42" s="45" t="n"/>
     </row>
     <row r="43" ht="17.25" customFormat="1" customHeight="1" s="43">
-      <c r="A43" s="105" t="inlineStr"/>
-      <c r="B43" s="87" t="n"/>
-      <c r="C43" s="107" t="inlineStr">
+      <c r="A43" s="71" t="inlineStr">
+        <is>
+          <t>JEFA DE DIVISIÓN DE ING. INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B43" s="65" t="n"/>
+      <c r="C43" s="73" t="inlineStr">
         <is>
           <t>REVISO</t>
         </is>
       </c>
-      <c r="D43" s="86" t="n"/>
-      <c r="E43" s="86" t="n"/>
-      <c r="F43" s="87" t="n"/>
-      <c r="G43" s="82" t="inlineStr">
+      <c r="D43" s="64" t="n"/>
+      <c r="E43" s="64" t="n"/>
+      <c r="F43" s="65" t="n"/>
+      <c r="G43" s="74" t="inlineStr">
         <is>
           <t>FIRMA DE CONFORMIDAD</t>
         </is>
       </c>
-      <c r="H43" s="83" t="n"/>
-      <c r="I43" s="83" t="n"/>
-      <c r="J43" s="84" t="n"/>
+      <c r="H43" s="61" t="n"/>
+      <c r="I43" s="61" t="n"/>
+      <c r="J43" s="62" t="n"/>
       <c r="K43" s="45" t="n"/>
     </row>
     <row r="44" ht="21.75" customFormat="1" customHeight="1" s="43">
-      <c r="A44" s="112" t="n"/>
-      <c r="B44" s="113" t="n"/>
+      <c r="A44" s="111" t="inlineStr">
+        <is>
+          <t>M. EN R.I. VIANCA LISSETH PEREZ CRUZ</t>
+        </is>
+      </c>
+      <c r="B44" s="112" t="n"/>
       <c r="C44" s="52" t="n"/>
       <c r="D44" s="46" t="n"/>
       <c r="E44" s="46" t="n"/>
       <c r="F44" s="47" t="n"/>
-      <c r="G44" s="57" t="inlineStr">
-        <is>
-          <t>YOLOTZI</t>
-        </is>
-      </c>
-      <c r="H44" s="86" t="n"/>
-      <c r="I44" s="86" t="n"/>
-      <c r="J44" s="87" t="n"/>
+      <c r="G44" s="85" t="inlineStr">
+        <is>
+          <t>AGUILAR GUGGEMBUHL JARUMI</t>
+        </is>
+      </c>
+      <c r="H44" s="64" t="n"/>
+      <c r="I44" s="64" t="n"/>
+      <c r="J44" s="65" t="n"/>
       <c r="K44" s="45" t="n"/>
     </row>
-    <row r="45" ht="27.75" customFormat="1" customHeight="1" s="43">
-      <c r="A45" s="114" t="n"/>
-      <c r="B45" s="113" t="n"/>
-      <c r="C45" s="115" t="inlineStr"/>
-      <c r="F45" s="113" t="n"/>
+    <row r="45" ht="18.75" customFormat="1" customHeight="1" s="43">
+      <c r="A45" s="113" t="inlineStr">
+        <is>
+          <t>JEFA DE DIVISIÓN DE ING. EN SISTEMAS COMPUTACIONALES</t>
+        </is>
+      </c>
+      <c r="B45" s="114" t="n"/>
+      <c r="C45" s="115" t="inlineStr">
+        <is>
+          <t>LCDA. BLANCA ESTELA SÁNCHEZ HERNÁNDEZ</t>
+        </is>
+      </c>
+      <c r="F45" s="114" t="n"/>
       <c r="G45" s="116" t="n"/>
-      <c r="J45" s="113" t="n"/>
+      <c r="J45" s="114" t="n"/>
       <c r="K45" s="45" t="n"/>
     </row>
-    <row r="46" ht="12" customFormat="1" customHeight="1" s="43">
-      <c r="A46" s="66" t="inlineStr"/>
-      <c r="B46" s="104" t="n"/>
-      <c r="C46" s="117" t="inlineStr"/>
-      <c r="D46" s="90" t="n"/>
-      <c r="E46" s="90" t="n"/>
-      <c r="F46" s="104" t="n"/>
+    <row r="46" ht="18.75" customFormat="1" customHeight="1" s="43">
+      <c r="A46" s="97" t="inlineStr">
+        <is>
+          <t>DRA. EN C.C. FABIOLA ORQUÍDEA SANCHEZ HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B46" s="70" t="n"/>
+      <c r="C46" s="117" t="inlineStr">
+        <is>
+          <t>ENCARGADA DEL DESPACHO DE DIRECCIÓN ACADÉMICA</t>
+        </is>
+      </c>
+      <c r="D46" s="69" t="n"/>
+      <c r="E46" s="69" t="n"/>
+      <c r="F46" s="70" t="n"/>
       <c r="G46" s="118" t="n"/>
-      <c r="H46" s="90" t="n"/>
-      <c r="I46" s="90" t="n"/>
-      <c r="J46" s="104" t="n"/>
+      <c r="H46" s="69" t="n"/>
+      <c r="I46" s="69" t="n"/>
+      <c r="J46" s="70" t="n"/>
       <c r="K46" s="45" t="n"/>
     </row>
     <row r="47" ht="1.35" customHeight="1" s="109">
@@ -2561,26 +3657,26 @@
       <c r="Q47" s="49" t="n"/>
     </row>
     <row r="48" ht="9" customHeight="1" s="109">
-      <c r="A48" s="68" t="n"/>
+      <c r="A48" s="99" t="n"/>
       <c r="C48" s="119" t="inlineStr">
         <is>
           <t>Vo. Bo</t>
         </is>
       </c>
-      <c r="G48" s="70" t="n"/>
+      <c r="G48" s="100" t="n"/>
       <c r="K48" s="3" t="n"/>
     </row>
     <row r="49" ht="12.75" customHeight="1" s="109">
       <c r="K49" s="3" t="n"/>
     </row>
-    <row r="50" ht="13.5" customHeight="1" s="109">
-      <c r="C50" s="90" t="n"/>
-      <c r="D50" s="90" t="n"/>
-      <c r="E50" s="90" t="n"/>
-      <c r="F50" s="90" t="n"/>
+    <row r="50" ht="16.5" customHeight="1" s="109">
+      <c r="C50" s="69" t="n"/>
+      <c r="D50" s="69" t="n"/>
+      <c r="E50" s="69" t="n"/>
+      <c r="F50" s="69" t="n"/>
       <c r="K50" s="3" t="n"/>
     </row>
-    <row r="51" ht="1.5" customHeight="1" s="109">
+    <row r="51" ht="0.75" customHeight="1" s="109">
       <c r="A51" s="50" t="n"/>
       <c r="B51" s="51" t="n"/>
       <c r="C51" s="51" t="n"/>
@@ -2593,20 +3689,28 @@
       <c r="J51" s="51" t="n"/>
       <c r="K51" s="3" t="n"/>
     </row>
-    <row r="52" ht="10.5" customHeight="1" s="109">
+    <row r="52" ht="9" customHeight="1" s="109">
       <c r="A52" s="51" t="n"/>
       <c r="B52" s="51" t="n"/>
-      <c r="C52" s="54" t="inlineStr"/>
+      <c r="C52" s="102" t="inlineStr">
+        <is>
+          <t>DR. ERNESTO M. RIVAS RIVAS</t>
+        </is>
+      </c>
       <c r="G52" s="51" t="n"/>
       <c r="H52" s="51" t="n"/>
       <c r="I52" s="51" t="n"/>
       <c r="J52" s="51" t="n"/>
     </row>
-    <row r="53">
-      <c r="C53" s="54" t="inlineStr"/>
+    <row r="53" ht="10.5" customHeight="1" s="109">
+      <c r="C53" s="102" t="inlineStr">
+        <is>
+          <t>DIRECTOR GENERAL</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="108" t="inlineStr">
+      <c r="A54" s="105" t="inlineStr">
         <is>
           <t>Los temarios de las asignaturas para este semestre debe ser descargados de la siguiente URL con la especialidad de Lean Manufacturing en la Industria 4.0: http://tescha.edomex.gob.mx/plan-de-estudio</t>
         </is>
@@ -2614,7 +3718,7 @@
     </row>
     <row r="55"/>
     <row r="56">
-      <c r="A56" s="53" t="n"/>
+      <c r="A56" s="57" t="n"/>
     </row>
     <row r="57">
       <c r="K57" s="3" t="n"/>
@@ -2633,13 +3737,3029 @@
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="A48:B50"/>
     <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="A54:J55"/>
-    <mergeCell ref="E6:J6"/>
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="G40:J40"/>
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G44:J46"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A56:J59"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="G48:J50"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="H9:J9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E15:J22">
+    <cfRule type="endsWith" priority="2" operator="endsWith" dxfId="0" text=".">
+      <formula>RIGHT(E15,LEN("."))="."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:J33">
+    <cfRule type="endsWith" priority="1" operator="endsWith" dxfId="0" text=".">
+      <formula>RIGHT(E26,LEN("."))="."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:J37">
+    <cfRule type="endsWith" priority="3" operator="endsWith" dxfId="0" text=".">
+      <formula>RIGHT(E37,LEN("."))="."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="endsWith" priority="4" operator="endsWith" dxfId="0" text=".">
+      <formula>RIGHT(K15,LEN("."))="."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="A7:D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>NOMBRE</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.2755905511811024" bottom="0.2755905511811024" header="0.2755905511811024" footer="0.2755905511811024"/>
+  <pageSetup orientation="portrait" scale="84" fitToWidth="0"/>
+  <headerFooter>
+    <oddHeader>&amp;CPágina &amp;P</oddHeader>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF90E8F4"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView showZeros="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A34" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="11.140625" customWidth="1" style="59" min="1" max="1"/>
+    <col width="19.42578125" customWidth="1" style="59" min="2" max="2"/>
+    <col width="7.85546875" customWidth="1" style="59" min="3" max="3"/>
+    <col width="5.85546875" customWidth="1" style="59" min="4" max="4"/>
+    <col width="13.140625" customWidth="1" style="59" min="5" max="5"/>
+    <col width="13.7109375" customWidth="1" style="59" min="6" max="6"/>
+    <col width="12.5703125" customWidth="1" style="59" min="7" max="7"/>
+    <col width="12.42578125" customWidth="1" style="59" min="8" max="8"/>
+    <col width="12" customWidth="1" style="59" min="9" max="9"/>
+    <col width="9.7109375" customWidth="1" style="59" min="10" max="10"/>
+    <col width="12.140625" customWidth="1" style="2" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" style="3" min="12" max="15"/>
+    <col width="25.42578125" customWidth="1" style="3" min="16" max="16"/>
+    <col width="42.28515625" customWidth="1" style="3" min="17" max="17"/>
+    <col width="11.42578125" customWidth="1" style="3" min="18" max="19"/>
+    <col width="11.42578125" customWidth="1" style="3" min="20" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12" customHeight="1" s="109">
+      <c r="A1" s="57" t="n"/>
+    </row>
+    <row r="2" ht="12" customHeight="1" s="109"/>
+    <row r="3" ht="32.25" customHeight="1" s="109"/>
+    <row r="4" ht="12" customHeight="1" s="109">
+      <c r="A4" s="58" t="inlineStr">
+        <is>
+          <t>“2025. Año del Bicentenario de la Erección del Estado Libre y Soberano de México”</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="60" t="inlineStr">
+        <is>
+          <t>Asignación Académica</t>
+        </is>
+      </c>
+      <c r="B5" s="61" t="n"/>
+      <c r="C5" s="61" t="n"/>
+      <c r="D5" s="61" t="n"/>
+      <c r="E5" s="61" t="n"/>
+      <c r="F5" s="61" t="n"/>
+      <c r="G5" s="61" t="n"/>
+      <c r="H5" s="61" t="n"/>
+      <c r="I5" s="61" t="n"/>
+      <c r="J5" s="62" t="n"/>
+    </row>
+    <row r="6" ht="12" customHeight="1" s="109">
+      <c r="A6" s="63" t="inlineStr">
+        <is>
+          <t>NOMBRE:</t>
+        </is>
+      </c>
+      <c r="B6" s="64" t="n"/>
+      <c r="C6" s="64" t="n"/>
+      <c r="D6" s="65" t="n"/>
+      <c r="E6" s="63" t="inlineStr">
+        <is>
+          <t>PROFESION:</t>
+        </is>
+      </c>
+      <c r="F6" s="64" t="n"/>
+      <c r="G6" s="64" t="n"/>
+      <c r="H6" s="64" t="n"/>
+      <c r="I6" s="64" t="n"/>
+      <c r="J6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="12" customHeight="1" s="109">
+      <c r="A7" s="53" t="inlineStr">
+        <is>
+          <t>IVAN</t>
+        </is>
+      </c>
+      <c r="B7" s="69" t="n"/>
+      <c r="C7" s="69" t="n"/>
+      <c r="D7" s="70" t="n"/>
+      <c r="E7" s="56" t="inlineStr">
+        <is>
+          <t>ING. INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="F7" s="69" t="n"/>
+      <c r="G7" s="69" t="n"/>
+      <c r="H7" s="69" t="n"/>
+      <c r="I7" s="69" t="n"/>
+      <c r="J7" s="70" t="n"/>
+    </row>
+    <row r="8" ht="12" customHeight="1" s="109">
+      <c r="A8" s="63" t="inlineStr">
+        <is>
+          <t>ADSCRIPCIÓN:</t>
+        </is>
+      </c>
+      <c r="B8" s="64" t="n"/>
+      <c r="C8" s="64" t="n"/>
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="63" t="inlineStr">
+        <is>
+          <t>INGRESO AL TECNOLÓGICO</t>
+        </is>
+      </c>
+      <c r="F8" s="64" t="n"/>
+      <c r="G8" s="65" t="n"/>
+      <c r="H8" s="63" t="inlineStr">
+        <is>
+          <t>TIEMPO INDETERMINADO</t>
+        </is>
+      </c>
+      <c r="I8" s="64" t="n"/>
+      <c r="J8" s="65" t="n"/>
+    </row>
+    <row r="9" ht="12" customHeight="1" s="109">
+      <c r="A9" s="56" t="inlineStr">
+        <is>
+          <t>PROFESOR DE ASIGNATURA DE ING. INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B9" s="69" t="n"/>
+      <c r="C9" s="69" t="n"/>
+      <c r="D9" s="70" t="n"/>
+      <c r="E9" s="68" t="inlineStr">
+        <is>
+          <t>01 DE MARZO DE 2011</t>
+        </is>
+      </c>
+      <c r="F9" s="69" t="n"/>
+      <c r="G9" s="70" t="n"/>
+      <c r="H9" s="68" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" s="69" t="n"/>
+      <c r="J9" s="70" t="n"/>
+    </row>
+    <row r="10" ht="12" customHeight="1" s="109">
+      <c r="A10" s="63" t="inlineStr">
+        <is>
+          <t>PERIODO:</t>
+        </is>
+      </c>
+      <c r="B10" s="64" t="n"/>
+      <c r="C10" s="64" t="n"/>
+      <c r="D10" s="65" t="n"/>
+      <c r="E10" s="75" t="inlineStr">
+        <is>
+          <t>HORAS TIPO</t>
+        </is>
+      </c>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="62" t="n"/>
+      <c r="I10" s="75" t="inlineStr">
+        <is>
+          <t>TOTAL DE HORAS</t>
+        </is>
+      </c>
+      <c r="J10" s="62" t="n"/>
+    </row>
+    <row r="11" ht="12" customHeight="1" s="109">
+      <c r="A11" s="76" t="inlineStr">
+        <is>
+          <t>MARZO-AGOSTO 2024</t>
+        </is>
+      </c>
+      <c r="B11" s="69" t="n"/>
+      <c r="C11" s="69" t="n"/>
+      <c r="D11" s="69" t="n"/>
+      <c r="E11" s="75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" s="3" t="n"/>
+    </row>
+    <row r="12" ht="5.1" customHeight="1" s="109">
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="8" t="n"/>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="12" customHeight="1" s="109">
+      <c r="A13" s="75" t="inlineStr">
+        <is>
+          <t>Asignación de Horas Frente a Grupo</t>
+        </is>
+      </c>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="61" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="62" t="n"/>
+    </row>
+    <row r="14" ht="12" customHeight="1" s="109">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>Carrera</t>
+        </is>
+      </c>
+      <c r="B14" s="18" t="inlineStr">
+        <is>
+          <t>Asignatura</t>
+        </is>
+      </c>
+      <c r="C14" s="18" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="D14" s="18" t="inlineStr">
+        <is>
+          <t>Hrs.</t>
+        </is>
+      </c>
+      <c r="E14" s="18" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="F14" s="18" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="G14" s="18" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="H14" s="18" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="I14" s="18" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="J14" s="18" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="inlineStr">
+        <is>
+          <t>SISTEMAS COMPUTACIONALES</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>MINECRAFT</t>
+        </is>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="D15" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F15" s="14" t="inlineStr">
+        <is>
+          <t>07:00 11:00</t>
+        </is>
+      </c>
+      <c r="G15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K15" s="15" t="n"/>
+      <c r="N15" s="110" t="n"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1" s="109">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>ELECTRÓNICA</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>MINECRAFT</t>
+        </is>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>3101</t>
+        </is>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K16" s="17" t="n"/>
+      <c r="N16" s="110" t="n"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1" s="109">
+      <c r="A17" s="10" t="inlineStr">
+        <is>
+          <t>SISTEMAS COMPUTACIONALES</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>MINECRAFT</t>
+        </is>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>4102</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K17" s="17" t="n"/>
+    </row>
+    <row r="18" ht="17.25" customHeight="1" s="109">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>SISTEMAS COMPUTACIONALES</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="inlineStr">
+        <is>
+          <t>MINECRAFT</t>
+        </is>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K18" s="17" t="n"/>
+    </row>
+    <row r="19" ht="20.25" customHeight="1" s="109">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="11" t="inlineStr"/>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" s="12" t="inlineStr"/>
+      <c r="E19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K19" s="17" t="n"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1" s="109">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="11" t="inlineStr"/>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" s="12" t="inlineStr"/>
+      <c r="E20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K20" s="17" t="n"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" s="109">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="11" t="inlineStr"/>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D21" s="12" t="inlineStr"/>
+      <c r="E21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K21" s="17" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" s="109">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="11" t="inlineStr"/>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D22" s="12" t="inlineStr"/>
+      <c r="E22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K22" s="17" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="19" t="n"/>
+      <c r="B23" s="20" t="n"/>
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E23" s="21" t="n"/>
+      <c r="F23" s="22" t="n"/>
+      <c r="G23" s="22" t="n"/>
+      <c r="H23" s="22" t="n"/>
+      <c r="I23" s="22" t="n"/>
+      <c r="J23" s="23" t="n"/>
+      <c r="K23" s="17" t="n"/>
+    </row>
+    <row r="24" ht="12" customHeight="1" s="109">
+      <c r="A24" s="77" t="inlineStr">
+        <is>
+          <t>Asignación de Horas de Descarga para otras Actividades</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="12" customHeight="1" s="109">
+      <c r="A25" s="18" t="inlineStr">
+        <is>
+          <t>Carrera</t>
+        </is>
+      </c>
+      <c r="B25" s="18" t="inlineStr">
+        <is>
+          <t>Asignatura</t>
+        </is>
+      </c>
+      <c r="C25" s="18" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="D25" s="18" t="inlineStr">
+        <is>
+          <t>Hrs.</t>
+        </is>
+      </c>
+      <c r="E25" s="18" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="F25" s="18" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="G25" s="18" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="H25" s="18" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="I25" s="18" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="J25" s="18" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="21.75" customHeight="1" s="109">
+      <c r="A26" s="24" t="inlineStr">
+        <is>
+          <t>SISTEMAS COMPUTACIONALES</t>
+        </is>
+      </c>
+      <c r="B26" s="25" t="inlineStr">
+        <is>
+          <t>MINECRAFT2</t>
+        </is>
+      </c>
+      <c r="C26" s="26" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="D26" s="26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K26" s="27" t="n"/>
+    </row>
+    <row r="27" ht="24.75" customHeight="1" s="109">
+      <c r="A27" s="24" t="inlineStr"/>
+      <c r="B27" s="25" t="inlineStr"/>
+      <c r="C27" s="26" t="inlineStr"/>
+      <c r="D27" s="26" t="inlineStr"/>
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K27" s="27" t="n"/>
+    </row>
+    <row r="28" ht="23.25" customHeight="1" s="109">
+      <c r="A28" s="24" t="inlineStr"/>
+      <c r="B28" s="25" t="inlineStr"/>
+      <c r="C28" s="26" t="inlineStr"/>
+      <c r="D28" s="26" t="inlineStr"/>
+      <c r="E28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K28" s="27" t="n"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" s="109">
+      <c r="A29" s="24" t="inlineStr"/>
+      <c r="B29" s="25" t="inlineStr"/>
+      <c r="C29" s="26" t="inlineStr"/>
+      <c r="D29" s="26" t="inlineStr"/>
+      <c r="E29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K29" s="27" t="n"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" s="109">
+      <c r="A30" s="24" t="inlineStr"/>
+      <c r="B30" s="25" t="inlineStr"/>
+      <c r="C30" s="26" t="inlineStr"/>
+      <c r="D30" s="26" t="inlineStr"/>
+      <c r="E30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K30" s="27" t="n"/>
+    </row>
+    <row r="31" ht="23.25" customHeight="1" s="109">
+      <c r="A31" s="24" t="inlineStr"/>
+      <c r="B31" s="25" t="inlineStr"/>
+      <c r="C31" s="26" t="inlineStr"/>
+      <c r="D31" s="26" t="inlineStr"/>
+      <c r="E31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K31" s="27" t="n"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" s="109">
+      <c r="A32" s="24" t="inlineStr"/>
+      <c r="B32" s="25" t="inlineStr"/>
+      <c r="C32" s="26" t="inlineStr"/>
+      <c r="D32" s="26" t="inlineStr"/>
+      <c r="E32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K32" s="27" t="n"/>
+    </row>
+    <row r="33" ht="21" customHeight="1" s="109">
+      <c r="A33" s="24" t="inlineStr"/>
+      <c r="B33" s="25" t="inlineStr"/>
+      <c r="C33" s="26" t="inlineStr"/>
+      <c r="D33" s="26" t="inlineStr"/>
+      <c r="E33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K33" s="27" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="28" t="n"/>
+      <c r="B34" s="29" t="n"/>
+      <c r="C34" s="18" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E34" s="30" t="n"/>
+      <c r="F34" s="28" t="n"/>
+      <c r="G34" s="28" t="n"/>
+      <c r="H34" s="28" t="n"/>
+      <c r="I34" s="28" t="n"/>
+      <c r="J34" s="28" t="n"/>
+      <c r="K34" s="27" t="n"/>
+    </row>
+    <row r="35" ht="12" customHeight="1" s="109">
+      <c r="A35" s="77" t="inlineStr">
+        <is>
+          <t>Asignación de Horas de Presidente y Secretario de Academia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="12" customHeight="1" s="109">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>Carrera</t>
+        </is>
+      </c>
+      <c r="B36" s="18" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="C36" s="18" t="inlineStr">
+        <is>
+          <t>Vigencia</t>
+        </is>
+      </c>
+      <c r="D36" s="18" t="inlineStr">
+        <is>
+          <t>Hrs.</t>
+        </is>
+      </c>
+      <c r="E36" s="18" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="F36" s="18" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="G36" s="18" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="H36" s="18" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="I36" s="18" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="J36" s="18" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" s="109">
+      <c r="A37" s="24" t="n"/>
+      <c r="B37" s="25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C37" s="26" t="inlineStr"/>
+      <c r="D37" s="26" t="inlineStr"/>
+      <c r="E37" s="18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G37" s="13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H37" s="18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I37" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J37" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K37" s="31" t="n"/>
+    </row>
+    <row r="38" ht="12" customHeight="1" s="109" thickBot="1">
+      <c r="A38" s="32" t="n"/>
+      <c r="B38" s="33" t="n"/>
+      <c r="C38" s="34" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n"/>
+      <c r="E38" s="26" t="n"/>
+      <c r="F38" s="26" t="n"/>
+      <c r="G38" s="26" t="n"/>
+      <c r="H38" s="26" t="n"/>
+      <c r="I38" s="26" t="n"/>
+      <c r="J38" s="35" t="n"/>
+    </row>
+    <row r="39" ht="12" customHeight="1" s="109" thickBot="1">
+      <c r="A39" s="36" t="n"/>
+      <c r="B39" s="78" t="inlineStr">
+        <is>
+          <t>TOTAL DE HORAS</t>
+        </is>
+      </c>
+      <c r="C39" s="79" t="n"/>
+      <c r="D39" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E39" s="38" t="n"/>
+      <c r="F39" s="38" t="n"/>
+      <c r="G39" s="38" t="n"/>
+      <c r="H39" s="38" t="n"/>
+      <c r="I39" s="38" t="n"/>
+      <c r="J39" s="39" t="n"/>
+    </row>
+    <row r="40" ht="12" customHeight="1" s="109" thickBot="1">
+      <c r="A40" s="36" t="n"/>
+      <c r="B40" s="40" t="n"/>
+      <c r="C40" s="41" t="n"/>
+      <c r="D40" s="38" t="n"/>
+      <c r="E40" s="80" t="inlineStr">
+        <is>
+          <t>FECHA DE APLICACIÓN</t>
+        </is>
+      </c>
+      <c r="G40" s="81" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="H40" s="79" t="n"/>
+      <c r="I40" s="79" t="n"/>
+      <c r="J40" s="82" t="n"/>
+    </row>
+    <row r="41" ht="12" customHeight="1" s="109" thickBot="1">
+      <c r="A41" s="36" t="n"/>
+      <c r="B41" s="40" t="n"/>
+      <c r="C41" s="41" t="n"/>
+      <c r="D41" s="38" t="n"/>
+      <c r="E41" s="80" t="inlineStr">
+        <is>
+          <t>CONSECUTIVO</t>
+        </is>
+      </c>
+      <c r="G41" s="42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" s="38" t="n"/>
+      <c r="I41" s="38" t="n"/>
+      <c r="J41" s="39" t="n"/>
+    </row>
+    <row r="42" ht="9.75" customFormat="1" customHeight="1" s="43">
+      <c r="C42" s="44" t="n"/>
+      <c r="D42" s="44" t="n"/>
+      <c r="E42" s="44" t="n"/>
+      <c r="F42" s="44" t="n"/>
+      <c r="G42" s="44" t="n"/>
+      <c r="H42" s="44" t="n"/>
+      <c r="I42" s="44" t="n"/>
+      <c r="J42" s="44" t="n"/>
+      <c r="K42" s="45" t="n"/>
+    </row>
+    <row r="43" ht="17.25" customFormat="1" customHeight="1" s="43">
+      <c r="A43" s="71" t="inlineStr">
+        <is>
+          <t>JEFE DE DIVISIÓN DE ING. ELECTRÓNICA</t>
+        </is>
+      </c>
+      <c r="B43" s="65" t="n"/>
+      <c r="C43" s="73" t="inlineStr">
+        <is>
+          <t>REVISO</t>
+        </is>
+      </c>
+      <c r="D43" s="64" t="n"/>
+      <c r="E43" s="64" t="n"/>
+      <c r="F43" s="65" t="n"/>
+      <c r="G43" s="74" t="inlineStr">
+        <is>
+          <t>FIRMA DE CONFORMIDAD</t>
+        </is>
+      </c>
+      <c r="H43" s="61" t="n"/>
+      <c r="I43" s="61" t="n"/>
+      <c r="J43" s="62" t="n"/>
+      <c r="K43" s="45" t="n"/>
+    </row>
+    <row r="44" ht="21.75" customFormat="1" customHeight="1" s="43">
+      <c r="A44" s="111" t="inlineStr">
+        <is>
+          <t>ING. RENÉ RIVERA ROLDÁN</t>
+        </is>
+      </c>
+      <c r="B44" s="112" t="n"/>
+      <c r="C44" s="52" t="n"/>
+      <c r="D44" s="46" t="n"/>
+      <c r="E44" s="46" t="n"/>
+      <c r="F44" s="47" t="n"/>
+      <c r="G44" s="85" t="inlineStr">
+        <is>
+          <t>IVAN</t>
+        </is>
+      </c>
+      <c r="H44" s="64" t="n"/>
+      <c r="I44" s="64" t="n"/>
+      <c r="J44" s="65" t="n"/>
+      <c r="K44" s="45" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customFormat="1" customHeight="1" s="43">
+      <c r="A45" s="113" t="inlineStr">
+        <is>
+          <t>JEFA DE DIVISIÓN DE ING. EN SISTEMAS COMPUTACIONALES</t>
+        </is>
+      </c>
+      <c r="B45" s="114" t="n"/>
+      <c r="C45" s="115" t="inlineStr">
+        <is>
+          <t>LCDA. BLANCA ESTELA SÁNCHEZ HERNÁNDEZ</t>
+        </is>
+      </c>
+      <c r="F45" s="114" t="n"/>
+      <c r="G45" s="116" t="n"/>
+      <c r="J45" s="114" t="n"/>
+      <c r="K45" s="45" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customFormat="1" customHeight="1" s="43">
+      <c r="A46" s="97" t="inlineStr">
+        <is>
+          <t>DRA. EN C.C. FABIOLA ORQUÍDEA SANCHEZ HERNANDEZ</t>
+        </is>
+      </c>
+      <c r="B46" s="70" t="n"/>
+      <c r="C46" s="117" t="inlineStr">
+        <is>
+          <t>ENCARGADA DEL DESPACHO DE DIRECCIÓN ACADÉMICA</t>
+        </is>
+      </c>
+      <c r="D46" s="69" t="n"/>
+      <c r="E46" s="69" t="n"/>
+      <c r="F46" s="70" t="n"/>
+      <c r="G46" s="118" t="n"/>
+      <c r="H46" s="69" t="n"/>
+      <c r="I46" s="69" t="n"/>
+      <c r="J46" s="70" t="n"/>
+      <c r="K46" s="45" t="n"/>
+    </row>
+    <row r="47" ht="1.35" customHeight="1" s="109">
+      <c r="A47" s="48" t="n"/>
+      <c r="B47" s="48" t="n"/>
+      <c r="C47" s="48" t="n"/>
+      <c r="D47" s="48" t="n"/>
+      <c r="E47" s="48" t="n"/>
+      <c r="F47" s="48" t="n"/>
+      <c r="G47" s="48" t="n"/>
+      <c r="H47" s="48" t="n"/>
+      <c r="I47" s="48" t="n"/>
+      <c r="J47" s="48" t="n"/>
+      <c r="P47" s="49" t="n"/>
+      <c r="Q47" s="49" t="n"/>
+    </row>
+    <row r="48" ht="9" customHeight="1" s="109">
+      <c r="A48" s="99" t="n"/>
+      <c r="C48" s="119" t="inlineStr">
+        <is>
+          <t>Vo. Bo</t>
+        </is>
+      </c>
+      <c r="G48" s="100" t="n"/>
+      <c r="K48" s="3" t="n"/>
+    </row>
+    <row r="49" ht="12.75" customHeight="1" s="109">
+      <c r="K49" s="3" t="n"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1" s="109">
+      <c r="C50" s="69" t="n"/>
+      <c r="D50" s="69" t="n"/>
+      <c r="E50" s="69" t="n"/>
+      <c r="F50" s="69" t="n"/>
+      <c r="K50" s="3" t="n"/>
+    </row>
+    <row r="51" ht="0.75" customHeight="1" s="109">
+      <c r="A51" s="50" t="n"/>
+      <c r="B51" s="51" t="n"/>
+      <c r="C51" s="51" t="n"/>
+      <c r="D51" s="51" t="n"/>
+      <c r="E51" s="51" t="n"/>
+      <c r="F51" s="51" t="n"/>
+      <c r="G51" s="51" t="n"/>
+      <c r="H51" s="51" t="n"/>
+      <c r="I51" s="51" t="n"/>
+      <c r="J51" s="51" t="n"/>
+      <c r="K51" s="3" t="n"/>
+    </row>
+    <row r="52" ht="9" customHeight="1" s="109">
+      <c r="A52" s="51" t="n"/>
+      <c r="B52" s="51" t="n"/>
+      <c r="C52" s="102" t="inlineStr">
+        <is>
+          <t>DR. ERNESTO M. RIVAS RIVAS</t>
+        </is>
+      </c>
+      <c r="G52" s="51" t="n"/>
+      <c r="H52" s="51" t="n"/>
+      <c r="I52" s="51" t="n"/>
+      <c r="J52" s="51" t="n"/>
+    </row>
+    <row r="53" ht="10.5" customHeight="1" s="109">
+      <c r="C53" s="102" t="inlineStr">
+        <is>
+          <t>DIRECTOR GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="105" t="inlineStr">
+        <is>
+          <t>Los temarios de las asignaturas para este semestre debe ser descargados de la siguiente URL con la especialidad de Lean Manufacturing en la Industria 4.0: http://tescha.edomex.gob.mx/plan-de-estudio</t>
+        </is>
+      </c>
+    </row>
+    <row r="55"/>
+    <row r="56">
+      <c r="A56" s="57" t="n"/>
+    </row>
+    <row r="57">
+      <c r="K57" s="3" t="n"/>
+    </row>
+    <row r="58"/>
+    <row r="59"/>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="C48:F50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A48:B50"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A54:J55"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C53:F53"/>
     <mergeCell ref="G40:J40"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G44:J46"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A56:J59"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="G48:J50"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="H9:J9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E15:J22">
+    <cfRule type="endsWith" priority="2" operator="endsWith" dxfId="0" text=".">
+      <formula>RIGHT(E15,LEN("."))="."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26:J33">
+    <cfRule type="endsWith" priority="1" operator="endsWith" dxfId="0" text=".">
+      <formula>RIGHT(E26,LEN("."))="."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:J37">
+    <cfRule type="endsWith" priority="3" operator="endsWith" dxfId="0" text=".">
+      <formula>RIGHT(E37,LEN("."))="."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="endsWith" priority="4" operator="endsWith" dxfId="0" text=".">
+      <formula>RIGHT(K15,LEN("."))="."</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="A7:D7" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
+      <formula1>NOMBRE</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.2755905511811024" bottom="0.2755905511811024" header="0.2755905511811024" footer="0.2755905511811024"/>
+  <pageSetup orientation="portrait" scale="84" fitToWidth="0"/>
+  <headerFooter>
+    <oddHeader>&amp;CPágina &amp;P</oddHeader>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF90E8F4"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q59"/>
+  <sheetViews>
+    <sheetView showZeros="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A34" zoomScale="120" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="11.140625" customWidth="1" style="59" min="1" max="1"/>
+    <col width="19.42578125" customWidth="1" style="59" min="2" max="2"/>
+    <col width="7.85546875" customWidth="1" style="59" min="3" max="3"/>
+    <col width="5.85546875" customWidth="1" style="59" min="4" max="4"/>
+    <col width="13.140625" customWidth="1" style="59" min="5" max="5"/>
+    <col width="13.7109375" customWidth="1" style="59" min="6" max="6"/>
+    <col width="12.5703125" customWidth="1" style="59" min="7" max="7"/>
+    <col width="12.42578125" customWidth="1" style="59" min="8" max="8"/>
+    <col width="12" customWidth="1" style="59" min="9" max="9"/>
+    <col width="9.7109375" customWidth="1" style="59" min="10" max="10"/>
+    <col width="12.140625" customWidth="1" style="2" min="11" max="11"/>
+    <col width="11.42578125" customWidth="1" style="3" min="12" max="15"/>
+    <col width="25.42578125" customWidth="1" style="3" min="16" max="16"/>
+    <col width="42.28515625" customWidth="1" style="3" min="17" max="17"/>
+    <col width="11.42578125" customWidth="1" style="3" min="18" max="19"/>
+    <col width="11.42578125" customWidth="1" style="3" min="20" max="16384"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12" customHeight="1" s="109">
+      <c r="A1" s="57" t="n"/>
+    </row>
+    <row r="2" ht="12" customHeight="1" s="109"/>
+    <row r="3" ht="32.25" customHeight="1" s="109"/>
+    <row r="4" ht="12" customHeight="1" s="109">
+      <c r="A4" s="58" t="inlineStr">
+        <is>
+          <t>“2025. Año del Bicentenario de la Erección del Estado Libre y Soberano de México”</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="60" t="inlineStr">
+        <is>
+          <t>Asignación Académica</t>
+        </is>
+      </c>
+      <c r="B5" s="61" t="n"/>
+      <c r="C5" s="61" t="n"/>
+      <c r="D5" s="61" t="n"/>
+      <c r="E5" s="61" t="n"/>
+      <c r="F5" s="61" t="n"/>
+      <c r="G5" s="61" t="n"/>
+      <c r="H5" s="61" t="n"/>
+      <c r="I5" s="61" t="n"/>
+      <c r="J5" s="62" t="n"/>
+    </row>
+    <row r="6" ht="12" customHeight="1" s="109">
+      <c r="A6" s="63" t="inlineStr">
+        <is>
+          <t>NOMBRE:</t>
+        </is>
+      </c>
+      <c r="B6" s="64" t="n"/>
+      <c r="C6" s="64" t="n"/>
+      <c r="D6" s="65" t="n"/>
+      <c r="E6" s="63" t="inlineStr">
+        <is>
+          <t>PROFESION:</t>
+        </is>
+      </c>
+      <c r="F6" s="64" t="n"/>
+      <c r="G6" s="64" t="n"/>
+      <c r="H6" s="64" t="n"/>
+      <c r="I6" s="64" t="n"/>
+      <c r="J6" s="65" t="n"/>
+    </row>
+    <row r="7" ht="12" customHeight="1" s="109">
+      <c r="A7" s="53" t="inlineStr">
+        <is>
+          <t>IVAN CASTELAN ESTRADA</t>
+        </is>
+      </c>
+      <c r="B7" s="69" t="n"/>
+      <c r="C7" s="69" t="n"/>
+      <c r="D7" s="70" t="n"/>
+      <c r="E7" s="56" t="inlineStr">
+        <is>
+          <t>ING. INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="F7" s="69" t="n"/>
+      <c r="G7" s="69" t="n"/>
+      <c r="H7" s="69" t="n"/>
+      <c r="I7" s="69" t="n"/>
+      <c r="J7" s="70" t="n"/>
+    </row>
+    <row r="8" ht="12" customHeight="1" s="109">
+      <c r="A8" s="63" t="inlineStr">
+        <is>
+          <t>ADSCRIPCIÓN:</t>
+        </is>
+      </c>
+      <c r="B8" s="64" t="n"/>
+      <c r="C8" s="64" t="n"/>
+      <c r="D8" s="65" t="n"/>
+      <c r="E8" s="63" t="inlineStr">
+        <is>
+          <t>INGRESO AL TECNOLÓGICO</t>
+        </is>
+      </c>
+      <c r="F8" s="64" t="n"/>
+      <c r="G8" s="65" t="n"/>
+      <c r="H8" s="63" t="inlineStr">
+        <is>
+          <t>TIEMPO INDETERMINADO</t>
+        </is>
+      </c>
+      <c r="I8" s="64" t="n"/>
+      <c r="J8" s="65" t="n"/>
+    </row>
+    <row r="9" ht="12" customHeight="1" s="109">
+      <c r="A9" s="56" t="inlineStr">
+        <is>
+          <t>PROFESOR DE ASIGNATURA DE ING. INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B9" s="69" t="n"/>
+      <c r="C9" s="69" t="n"/>
+      <c r="D9" s="70" t="n"/>
+      <c r="E9" s="68" t="inlineStr">
+        <is>
+          <t>01 DE MARZO DE 2011</t>
+        </is>
+      </c>
+      <c r="F9" s="69" t="n"/>
+      <c r="G9" s="70" t="n"/>
+      <c r="H9" s="68" t="inlineStr">
+        <is>
+          <t>SI</t>
+        </is>
+      </c>
+      <c r="I9" s="69" t="n"/>
+      <c r="J9" s="70" t="n"/>
+    </row>
+    <row r="10" ht="12" customHeight="1" s="109">
+      <c r="A10" s="63" t="inlineStr">
+        <is>
+          <t>PERIODO:</t>
+        </is>
+      </c>
+      <c r="B10" s="64" t="n"/>
+      <c r="C10" s="64" t="n"/>
+      <c r="D10" s="65" t="n"/>
+      <c r="E10" s="75" t="inlineStr">
+        <is>
+          <t>HORAS TIPO</t>
+        </is>
+      </c>
+      <c r="F10" s="61" t="n"/>
+      <c r="G10" s="61" t="n"/>
+      <c r="H10" s="62" t="n"/>
+      <c r="I10" s="75" t="inlineStr">
+        <is>
+          <t>TOTAL DE HORAS</t>
+        </is>
+      </c>
+      <c r="J10" s="62" t="n"/>
+    </row>
+    <row r="11" ht="12" customHeight="1" s="109">
+      <c r="A11" s="76" t="inlineStr">
+        <is>
+          <t>MARZO-AGOSTO 2024</t>
+        </is>
+      </c>
+      <c r="B11" s="69" t="n"/>
+      <c r="C11" s="69" t="n"/>
+      <c r="D11" s="69" t="n"/>
+      <c r="E11" s="75" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="K11" s="3" t="n"/>
+    </row>
+    <row r="12" ht="5.1" customHeight="1" s="109">
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="8" t="n"/>
+      <c r="C12" s="8" t="n"/>
+      <c r="D12" s="8" t="n"/>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="8" t="n"/>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="12" customHeight="1" s="109">
+      <c r="A13" s="75" t="inlineStr">
+        <is>
+          <t>Asignación de Horas Frente a Grupo</t>
+        </is>
+      </c>
+      <c r="B13" s="61" t="n"/>
+      <c r="C13" s="61" t="n"/>
+      <c r="D13" s="61" t="n"/>
+      <c r="E13" s="61" t="n"/>
+      <c r="F13" s="61" t="n"/>
+      <c r="G13" s="61" t="n"/>
+      <c r="H13" s="61" t="n"/>
+      <c r="I13" s="61" t="n"/>
+      <c r="J13" s="62" t="n"/>
+    </row>
+    <row r="14" ht="12" customHeight="1" s="109">
+      <c r="A14" s="18" t="inlineStr">
+        <is>
+          <t>Carrera</t>
+        </is>
+      </c>
+      <c r="B14" s="18" t="inlineStr">
+        <is>
+          <t>Asignatura</t>
+        </is>
+      </c>
+      <c r="C14" s="18" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="D14" s="18" t="inlineStr">
+        <is>
+          <t>Hrs.</t>
+        </is>
+      </c>
+      <c r="E14" s="18" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="F14" s="18" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="G14" s="18" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="H14" s="18" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="I14" s="18" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="J14" s="18" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="10" t="inlineStr">
+        <is>
+          <t>ELECTROMECÁNICA</t>
+        </is>
+      </c>
+      <c r="B15" s="11" t="inlineStr">
+        <is>
+          <t>MINECRAFT ELECTROMECANICA</t>
+        </is>
+      </c>
+      <c r="C15" s="12" t="inlineStr">
+        <is>
+          <t>2101</t>
+        </is>
+      </c>
+      <c r="D15" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" s="120" t="inlineStr">
+        <is>
+          <t>07:00 11:00</t>
+        </is>
+      </c>
+      <c r="F15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J15" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K15" s="15" t="n"/>
+      <c r="N15" s="110" t="n"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1" s="109">
+      <c r="A16" s="10" t="inlineStr">
+        <is>
+          <t>SISTEMAS COMPUTACIONALES</t>
+        </is>
+      </c>
+      <c r="B16" s="11" t="inlineStr">
+        <is>
+          <t>MINECRAFT</t>
+        </is>
+      </c>
+      <c r="C16" s="12" t="inlineStr">
+        <is>
+          <t>4152</t>
+        </is>
+      </c>
+      <c r="D16" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F16" s="14" t="inlineStr">
+        <is>
+          <t>14:00 18:00</t>
+        </is>
+      </c>
+      <c r="G16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J16" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K16" s="17" t="n"/>
+      <c r="N16" s="110" t="n"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1" s="109">
+      <c r="A17" s="10" t="inlineStr">
+        <is>
+          <t>INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="B17" s="11" t="inlineStr">
+        <is>
+          <t>PROBABILIDAD Y ESTADÍSTICA (AEC-1053)</t>
+        </is>
+      </c>
+      <c r="C17" s="12" t="inlineStr">
+        <is>
+          <t>1181</t>
+        </is>
+      </c>
+      <c r="D17" s="12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G17" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">17:00 21:00 H.T. </t>
+        </is>
+      </c>
+      <c r="H17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J17" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K17" s="17" t="n"/>
+    </row>
+    <row r="18" ht="17.25" customHeight="1" s="109">
+      <c r="A18" s="10" t="inlineStr">
+        <is>
+          <t>INFORMÁTICA</t>
+        </is>
+      </c>
+      <c r="B18" s="11" t="inlineStr">
+        <is>
+          <t>MINECRAFT INFOR</t>
+        </is>
+      </c>
+      <c r="C18" s="12" t="inlineStr">
+        <is>
+          <t>6101</t>
+        </is>
+      </c>
+      <c r="D18" s="12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H18" s="14" t="inlineStr">
+        <is>
+          <t>11:00 16:00</t>
+        </is>
+      </c>
+      <c r="I18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J18" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K18" s="17" t="n"/>
+    </row>
+    <row r="19" ht="20.25" customHeight="1" s="109">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="11" t="inlineStr"/>
+      <c r="C19" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" s="12" t="inlineStr"/>
+      <c r="E19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J19" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K19" s="17" t="n"/>
+    </row>
+    <row r="20" ht="19.5" customHeight="1" s="109">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="11" t="inlineStr"/>
+      <c r="C20" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" s="12" t="inlineStr"/>
+      <c r="E20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J20" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K20" s="17" t="n"/>
+    </row>
+    <row r="21" ht="18" customHeight="1" s="109">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="11" t="inlineStr"/>
+      <c r="C21" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D21" s="12" t="inlineStr"/>
+      <c r="E21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J21" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K21" s="17" t="n"/>
+    </row>
+    <row r="22" ht="18" customHeight="1" s="109">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="11" t="inlineStr"/>
+      <c r="C22" s="12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D22" s="12" t="inlineStr"/>
+      <c r="E22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J22" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K22" s="17" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="19" t="n"/>
+      <c r="B23" s="20" t="n"/>
+      <c r="C23" s="18" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="21" t="n"/>
+      <c r="F23" s="22" t="n"/>
+      <c r="G23" s="22" t="n"/>
+      <c r="H23" s="22" t="n"/>
+      <c r="I23" s="22" t="n"/>
+      <c r="J23" s="23" t="n"/>
+      <c r="K23" s="17" t="n"/>
+    </row>
+    <row r="24" ht="12" customHeight="1" s="109">
+      <c r="A24" s="77" t="inlineStr">
+        <is>
+          <t>Asignación de Horas de Descarga para otras Actividades</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="12" customHeight="1" s="109">
+      <c r="A25" s="18" t="inlineStr">
+        <is>
+          <t>Carrera</t>
+        </is>
+      </c>
+      <c r="B25" s="18" t="inlineStr">
+        <is>
+          <t>Asignatura</t>
+        </is>
+      </c>
+      <c r="C25" s="18" t="inlineStr">
+        <is>
+          <t>Grupo</t>
+        </is>
+      </c>
+      <c r="D25" s="18" t="inlineStr">
+        <is>
+          <t>Hrs.</t>
+        </is>
+      </c>
+      <c r="E25" s="18" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="F25" s="18" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="G25" s="18" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="H25" s="18" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="I25" s="18" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="J25" s="18" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="21.75" customHeight="1" s="109">
+      <c r="A26" s="24" t="inlineStr">
+        <is>
+          <t>ELECTRÓNICA</t>
+        </is>
+      </c>
+      <c r="B26" s="25" t="inlineStr">
+        <is>
+          <t>MINECRAFT 8</t>
+        </is>
+      </c>
+      <c r="C26" s="26" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="D26" s="26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" s="14" t="inlineStr">
+        <is>
+          <t>10:00 17:00</t>
+        </is>
+      </c>
+      <c r="J26" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K26" s="27" t="n"/>
+    </row>
+    <row r="27" ht="24.75" customHeight="1" s="109">
+      <c r="A27" s="24" t="inlineStr">
+        <is>
+          <t>ADMINISTRACIÓN</t>
+        </is>
+      </c>
+      <c r="B27" s="25" t="inlineStr">
+        <is>
+          <t>MINECRAFT2</t>
+        </is>
+      </c>
+      <c r="C27" s="26" t="inlineStr"/>
+      <c r="D27" s="26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J27" s="120" t="inlineStr">
+        <is>
+          <t>11:00 12:00</t>
+        </is>
+      </c>
+      <c r="K27" s="27" t="n"/>
+    </row>
+    <row r="28" ht="23.25" customHeight="1" s="109">
+      <c r="A28" s="24" t="inlineStr"/>
+      <c r="B28" s="25" t="inlineStr"/>
+      <c r="C28" s="26" t="inlineStr"/>
+      <c r="D28" s="26" t="inlineStr"/>
+      <c r="E28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J28" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K28" s="27" t="n"/>
+    </row>
+    <row r="29" ht="24" customHeight="1" s="109">
+      <c r="A29" s="24" t="inlineStr"/>
+      <c r="B29" s="25" t="inlineStr"/>
+      <c r="C29" s="26" t="inlineStr"/>
+      <c r="D29" s="26" t="inlineStr"/>
+      <c r="E29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J29" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K29" s="27" t="n"/>
+    </row>
+    <row r="30" ht="24" customHeight="1" s="109">
+      <c r="A30" s="24" t="inlineStr"/>
+      <c r="B30" s="25" t="inlineStr"/>
+      <c r="C30" s="26" t="inlineStr"/>
+      <c r="D30" s="26" t="inlineStr"/>
+      <c r="E30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J30" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K30" s="27" t="n"/>
+    </row>
+    <row r="31" ht="23.25" customHeight="1" s="109">
+      <c r="A31" s="24" t="inlineStr"/>
+      <c r="B31" s="25" t="inlineStr"/>
+      <c r="C31" s="26" t="inlineStr"/>
+      <c r="D31" s="26" t="inlineStr"/>
+      <c r="E31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J31" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K31" s="27" t="n"/>
+    </row>
+    <row r="32" ht="24" customHeight="1" s="109">
+      <c r="A32" s="24" t="inlineStr"/>
+      <c r="B32" s="25" t="inlineStr"/>
+      <c r="C32" s="26" t="inlineStr"/>
+      <c r="D32" s="26" t="inlineStr"/>
+      <c r="E32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J32" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K32" s="27" t="n"/>
+    </row>
+    <row r="33" ht="21" customHeight="1" s="109">
+      <c r="A33" s="24" t="inlineStr"/>
+      <c r="B33" s="25" t="inlineStr"/>
+      <c r="C33" s="26" t="inlineStr"/>
+      <c r="D33" s="26" t="inlineStr"/>
+      <c r="E33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J33" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K33" s="27" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="28" t="n"/>
+      <c r="B34" s="29" t="n"/>
+      <c r="C34" s="18" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30" t="n"/>
+      <c r="F34" s="28" t="n"/>
+      <c r="G34" s="28" t="n"/>
+      <c r="H34" s="28" t="n"/>
+      <c r="I34" s="28" t="n"/>
+      <c r="J34" s="28" t="n"/>
+      <c r="K34" s="27" t="n"/>
+    </row>
+    <row r="35" ht="12" customHeight="1" s="109">
+      <c r="A35" s="77" t="inlineStr">
+        <is>
+          <t>Asignación de Horas de Presidente y Secretario de Academia</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="12" customHeight="1" s="109">
+      <c r="A36" s="18" t="inlineStr">
+        <is>
+          <t>Carrera</t>
+        </is>
+      </c>
+      <c r="B36" s="18" t="inlineStr">
+        <is>
+          <t>Cargo</t>
+        </is>
+      </c>
+      <c r="C36" s="18" t="inlineStr">
+        <is>
+          <t>Vigencia</t>
+        </is>
+      </c>
+      <c r="D36" s="18" t="inlineStr">
+        <is>
+          <t>Hrs.</t>
+        </is>
+      </c>
+      <c r="E36" s="18" t="inlineStr">
+        <is>
+          <t>Lunes</t>
+        </is>
+      </c>
+      <c r="F36" s="18" t="inlineStr">
+        <is>
+          <t>Martes</t>
+        </is>
+      </c>
+      <c r="G36" s="18" t="inlineStr">
+        <is>
+          <t>Miércoles</t>
+        </is>
+      </c>
+      <c r="H36" s="18" t="inlineStr">
+        <is>
+          <t>Jueves</t>
+        </is>
+      </c>
+      <c r="I36" s="18" t="inlineStr">
+        <is>
+          <t>Viernes</t>
+        </is>
+      </c>
+      <c r="J36" s="18" t="inlineStr">
+        <is>
+          <t>Sábado</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="18.75" customHeight="1" s="109">
+      <c r="A37" s="24" t="n"/>
+      <c r="B37" s="25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C37" s="26" t="inlineStr"/>
+      <c r="D37" s="26" t="inlineStr"/>
+      <c r="E37" s="18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G37" s="13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="H37" s="18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I37" s="14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J37" s="26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K37" s="31" t="n"/>
+    </row>
+    <row r="38" ht="12" customHeight="1" s="109" thickBot="1">
+      <c r="A38" s="32" t="n"/>
+      <c r="B38" s="33" t="n"/>
+      <c r="C38" s="34" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n"/>
+      <c r="E38" s="26" t="n"/>
+      <c r="F38" s="26" t="n"/>
+      <c r="G38" s="26" t="n"/>
+      <c r="H38" s="26" t="n"/>
+      <c r="I38" s="26" t="n"/>
+      <c r="J38" s="35" t="n"/>
+    </row>
+    <row r="39" ht="12" customHeight="1" s="109" thickBot="1">
+      <c r="A39" s="36" t="n"/>
+      <c r="B39" s="78" t="inlineStr">
+        <is>
+          <t>TOTAL DE HORAS</t>
+        </is>
+      </c>
+      <c r="C39" s="79" t="n"/>
+      <c r="D39" s="37" t="n">
+        <v>25</v>
+      </c>
+      <c r="E39" s="38" t="n"/>
+      <c r="F39" s="38" t="n"/>
+      <c r="G39" s="38" t="n"/>
+      <c r="H39" s="38" t="n"/>
+      <c r="I39" s="38" t="n"/>
+      <c r="J39" s="39" t="n"/>
+    </row>
+    <row r="40" ht="12" customHeight="1" s="109" thickBot="1">
+      <c r="A40" s="36" t="n"/>
+      <c r="B40" s="40" t="n"/>
+      <c r="C40" s="41" t="n"/>
+      <c r="D40" s="38" t="n"/>
+      <c r="E40" s="80" t="inlineStr">
+        <is>
+          <t>FECHA DE APLICACIÓN</t>
+        </is>
+      </c>
+      <c r="G40" s="81" t="inlineStr">
+        <is>
+          <t>03/03/2025</t>
+        </is>
+      </c>
+      <c r="H40" s="79" t="n"/>
+      <c r="I40" s="79" t="n"/>
+      <c r="J40" s="82" t="n"/>
+    </row>
+    <row r="41" ht="12" customHeight="1" s="109" thickBot="1">
+      <c r="A41" s="36" t="n"/>
+      <c r="B41" s="40" t="n"/>
+      <c r="C41" s="41" t="n"/>
+      <c r="D41" s="38" t="n"/>
+      <c r="E41" s="80" t="inlineStr">
+        <is>
+          <t>CONSECUTIVO</t>
+        </is>
+      </c>
+      <c r="G41" s="42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" s="38" t="n"/>
+      <c r="I41" s="38" t="n"/>
+      <c r="J41" s="39" t="n"/>
+    </row>
+    <row r="42" ht="9.75" customFormat="1" customHeight="1" s="43">
+      <c r="C42" s="44" t="n"/>
+      <c r="D42" s="44" t="n"/>
+      <c r="E42" s="44" t="n"/>
+      <c r="F42" s="44" t="n"/>
+      <c r="G42" s="44" t="n"/>
+      <c r="H42" s="44" t="n"/>
+      <c r="I42" s="44" t="n"/>
+      <c r="J42" s="44" t="n"/>
+      <c r="K42" s="45" t="n"/>
+    </row>
+    <row r="43" ht="17.25" customFormat="1" customHeight="1" s="43">
+      <c r="A43" s="71" t="n"/>
+      <c r="B43" s="65" t="n"/>
+      <c r="C43" s="73" t="inlineStr">
+        <is>
+          <t>REVISO</t>
+        </is>
+      </c>
+      <c r="D43" s="64" t="n"/>
+      <c r="E43" s="64" t="n"/>
+      <c r="F43" s="65" t="n"/>
+      <c r="G43" s="74" t="inlineStr">
+        <is>
+          <t>FIRMA DE CONFORMIDAD</t>
+        </is>
+      </c>
+      <c r="H43" s="61" t="n"/>
+      <c r="I43" s="61" t="n"/>
+      <c r="J43" s="62" t="n"/>
+      <c r="K43" s="45" t="n"/>
+    </row>
+    <row r="44" ht="21.75" customFormat="1" customHeight="1" s="43">
+      <c r="A44" s="121" t="n"/>
+      <c r="B44" s="114" t="n"/>
+      <c r="C44" s="52" t="n"/>
+      <c r="D44" s="46" t="n"/>
+      <c r="E44" s="46" t="n"/>
+      <c r="F44" s="47" t="n"/>
+      <c r="G44" s="85" t="inlineStr">
+        <is>
+          <t>IVAN CASTELAN ESTRADA</t>
+        </is>
+      </c>
+      <c r="H44" s="64" t="n"/>
+      <c r="I44" s="64" t="n"/>
+      <c r="J44" s="65" t="n"/>
+      <c r="K44" s="45" t="n"/>
+    </row>
+    <row r="45" ht="18.75" customFormat="1" customHeight="1" s="43">
+      <c r="A45" s="113" t="n"/>
+      <c r="B45" s="114" t="n"/>
+      <c r="C45" s="115" t="inlineStr">
+        <is>
+          <t>LCDA. BLANCA ESTELA SÁNCHEZ HERNÁNDEZ</t>
+        </is>
+      </c>
+      <c r="F45" s="114" t="n"/>
+      <c r="G45" s="116" t="n"/>
+      <c r="J45" s="114" t="n"/>
+      <c r="K45" s="45" t="n"/>
+    </row>
+    <row r="46" ht="18.75" customFormat="1" customHeight="1" s="43">
+      <c r="A46" s="97" t="n"/>
+      <c r="B46" s="70" t="n"/>
+      <c r="C46" s="117" t="inlineStr">
+        <is>
+          <t>ENCARGADA DEL DESPACHO DE DIRECCIÓN ACADÉMICA</t>
+        </is>
+      </c>
+      <c r="D46" s="69" t="n"/>
+      <c r="E46" s="69" t="n"/>
+      <c r="F46" s="70" t="n"/>
+      <c r="G46" s="118" t="n"/>
+      <c r="H46" s="69" t="n"/>
+      <c r="I46" s="69" t="n"/>
+      <c r="J46" s="70" t="n"/>
+      <c r="K46" s="45" t="n"/>
+    </row>
+    <row r="47" ht="1.35" customHeight="1" s="109">
+      <c r="A47" s="48" t="n"/>
+      <c r="B47" s="48" t="n"/>
+      <c r="C47" s="48" t="n"/>
+      <c r="D47" s="48" t="n"/>
+      <c r="E47" s="48" t="n"/>
+      <c r="F47" s="48" t="n"/>
+      <c r="G47" s="48" t="n"/>
+      <c r="H47" s="48" t="n"/>
+      <c r="I47" s="48" t="n"/>
+      <c r="J47" s="48" t="n"/>
+      <c r="P47" s="49" t="n"/>
+      <c r="Q47" s="49" t="n"/>
+    </row>
+    <row r="48" ht="9" customHeight="1" s="109">
+      <c r="A48" s="99" t="n"/>
+      <c r="C48" s="119" t="inlineStr">
+        <is>
+          <t>Vo. Bo</t>
+        </is>
+      </c>
+      <c r="G48" s="100" t="n"/>
+      <c r="K48" s="3" t="n"/>
+    </row>
+    <row r="49" ht="12.75" customHeight="1" s="109">
+      <c r="K49" s="3" t="n"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1" s="109">
+      <c r="C50" s="69" t="n"/>
+      <c r="D50" s="69" t="n"/>
+      <c r="E50" s="69" t="n"/>
+      <c r="F50" s="69" t="n"/>
+      <c r="K50" s="3" t="n"/>
+    </row>
+    <row r="51" ht="0.75" customHeight="1" s="109">
+      <c r="A51" s="50" t="n"/>
+      <c r="B51" s="51" t="n"/>
+      <c r="C51" s="51" t="n"/>
+      <c r="D51" s="51" t="n"/>
+      <c r="E51" s="51" t="n"/>
+      <c r="F51" s="51" t="n"/>
+      <c r="G51" s="51" t="n"/>
+      <c r="H51" s="51" t="n"/>
+      <c r="I51" s="51" t="n"/>
+      <c r="J51" s="51" t="n"/>
+      <c r="K51" s="3" t="n"/>
+    </row>
+    <row r="52" ht="9" customHeight="1" s="109">
+      <c r="A52" s="51" t="n"/>
+      <c r="B52" s="51" t="n"/>
+      <c r="C52" s="102" t="inlineStr">
+        <is>
+          <t>DR. ERNESTO M. RIVAS RIVAS</t>
+        </is>
+      </c>
+      <c r="G52" s="51" t="n"/>
+      <c r="H52" s="51" t="n"/>
+      <c r="I52" s="51" t="n"/>
+      <c r="J52" s="51" t="n"/>
+    </row>
+    <row r="53" ht="10.5" customHeight="1" s="109">
+      <c r="C53" s="102" t="inlineStr">
+        <is>
+          <t>DIRECTOR GENERAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="105" t="inlineStr">
+        <is>
+          <t>Los temarios de las asignaturas para este semestre debe ser descargados de la siguiente URL con la especialidad de Lean Manufacturing en la Industria 4.0: http://tescha.edomex.gob.mx/plan-de-estudio</t>
+        </is>
+      </c>
+    </row>
+    <row r="55"/>
+    <row r="56">
+      <c r="A56" s="57" t="n"/>
+    </row>
+    <row r="57">
+      <c r="K57" s="3" t="n"/>
+    </row>
+    <row r="58"/>
+    <row r="59"/>
+  </sheetData>
+  <mergeCells count="40">
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="C48:F50"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A48:B50"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="A54:J55"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="C53:F53"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="A9:D9"/>
     <mergeCell ref="G44:J46"/>
     <mergeCell ref="G43:J43"/>
     <mergeCell ref="A46:B46"/>
